--- a/db_tempi_opt_reale.xlsx
+++ b/db_tempi_opt_reale.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcello_galimberti/Documents/Marcello Galimberti/ADI business consulting/Offerte 2023/Ducati 2023/ASC/Simulazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFC3F44-7115-4D41-8B64-721BF27E9A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F4FEA9-31C1-9744-98E4-7BDB885D1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="3240" windowWidth="26840" windowHeight="15940" xr2:uid="{C5D6ECD5-EDC7-7440-90B2-AAC44C3C0FE0}"/>
+    <workbookView xWindow="32840" yWindow="3800" windowWidth="25320" windowHeight="19480" xr2:uid="{C5D6ECD5-EDC7-7440-90B2-AAC44C3C0FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
         <v>1.2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>4.16</v>
       </c>
       <c r="C3">
-        <v>7.38</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
         <v>2.52</v>
@@ -535,7 +535,7 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>4.4000000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -555,7 +555,7 @@
         <v>5.95</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.65</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>5.95</v>
       </c>
       <c r="C6">
-        <v>13.15</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8.8000000000000007</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>2.8</v>
       </c>
       <c r="C9">
-        <v>30.44</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.3</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>1.3</v>
       </c>
       <c r="C11">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>1.3</v>
       </c>
       <c r="C16">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>2.5</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>

--- a/db_tempi_opt_reale.xlsx
+++ b/db_tempi_opt_reale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcello_galimberti/Documents/Marcello Galimberti/ADI business consulting/Offerte 2023/Ducati 2023/ASC/Simulazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F4FEA9-31C1-9744-98E4-7BDB885D1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91382781-A07D-2742-AD5B-66CCE16F13E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32840" yWindow="3800" windowWidth="25320" windowHeight="19480" xr2:uid="{C5D6ECD5-EDC7-7440-90B2-AAC44C3C0FE0}"/>
+    <workbookView xWindow="4940" yWindow="5780" windowWidth="34560" windowHeight="21580" xr2:uid="{C5D6ECD5-EDC7-7440-90B2-AAC44C3C0FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.42</v>
+        <v>12.29</v>
       </c>
       <c r="F15">
         <v>0</v>
